--- a/branches/update-code-systems/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/update-code-systems/StructureDefinition-hiv-lab-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T09:53:38+00:00</t>
+    <t>2023-03-14T11:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-code-systems/StructureDefinition-hiv-lab-task.xlsx
+++ b/branches/update-code-systems/StructureDefinition-hiv-lab-task.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3245" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3390" uniqueCount="588">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T11:49:46+00:00</t>
+    <t>2023-03-24T12:30:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1076,6 +1076,21 @@
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN, code="status change"].reasonCode</t>
   </si>
   <si>
+    <t>Task.statusReason.id</t>
+  </si>
+  <si>
+    <t>Task.statusReason.extension</t>
+  </si>
+  <si>
+    <t>Task.statusReason.coding</t>
+  </si>
+  <si>
+    <t>Task.statusReason.text</t>
+  </si>
+  <si>
+    <t>Reason For Canceling/Rejecting the Lab Order</t>
+  </si>
+  <si>
     <t>Task.businessStatus</t>
   </si>
   <si>
@@ -1782,6 +1797,9 @@
   </si>
   <si>
     <t>Task.output.type.text</t>
+  </si>
+  <si>
+    <t>Viral Load Result</t>
   </si>
   <si>
     <t>Task.output.value[x]</t>
@@ -2115,7 +2133,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN89"/>
+  <dimension ref="A1:AN93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6530,21 +6548,19 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>346</v>
+        <v>158</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>347</v>
+        <v>159</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>348</v>
-      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6568,10 +6584,10 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>349</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>350</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>77</v>
@@ -6592,7 +6608,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>345</v>
+        <v>160</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6604,13 +6620,13 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>351</v>
+        <v>161</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -6621,21 +6637,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -6644,19 +6660,19 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>353</v>
+        <v>133</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>354</v>
+        <v>164</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>355</v>
+        <v>135</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6667,7 +6683,7 @@
         <v>77</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>356</v>
+        <v>77</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>77</v>
@@ -6682,52 +6698,52 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>358</v>
+        <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>352</v>
+        <v>168</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>359</v>
+        <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>360</v>
+        <v>161</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>361</v>
+        <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6735,10 +6751,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6749,7 +6765,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6758,27 +6774,27 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>363</v>
+        <v>199</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O41" t="s" s="2">
-        <v>365</v>
+        <v>202</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q41" t="s" s="2">
-        <v>366</v>
-      </c>
+      <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6798,13 +6814,13 @@
         <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>367</v>
+        <v>77</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>368</v>
+        <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>77</v>
@@ -6822,13 +6838,13 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>362</v>
+        <v>203</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>77</v>
@@ -6837,24 +6853,24 @@
         <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>370</v>
+        <v>204</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6877,18 +6893,20 @@
         <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>373</v>
+        <v>256</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>374</v>
+        <v>257</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6897,7 +6915,7 @@
         <v>77</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>77</v>
@@ -6912,13 +6930,13 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>349</v>
+        <v>77</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>376</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>377</v>
+        <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>77</v>
@@ -6936,7 +6954,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>372</v>
+        <v>260</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6951,24 +6969,24 @@
         <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>378</v>
+        <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>379</v>
+        <v>261</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>380</v>
+        <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>77</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6991,16 +7009,18 @@
         <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
       </c>
@@ -7024,10 +7044,10 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
@@ -7048,7 +7068,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7066,7 +7086,7 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -7077,10 +7097,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7088,7 +7108,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>86</v>
@@ -7103,20 +7123,18 @@
         <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>386</v>
+        <v>106</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
@@ -7125,7 +7143,7 @@
         <v>77</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>77</v>
+        <v>361</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>77</v>
@@ -7140,13 +7158,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -7164,10 +7182,10 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>86</v>
@@ -7179,13 +7197,13 @@
         <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>77</v>
+        <v>364</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -7193,14 +7211,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>393</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7216,25 +7234,27 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>386</v>
+        <v>106</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>395</v>
+        <v>369</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>396</v>
+        <v>370</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="R45" t="s" s="2">
         <v>77</v>
       </c>
@@ -7254,13 +7274,13 @@
         <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>77</v>
+        <v>372</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>77</v>
+        <v>373</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>77</v>
@@ -7278,7 +7298,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7293,13 +7313,13 @@
         <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7307,10 +7327,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7333,18 +7353,18 @@
         <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>401</v>
+        <v>182</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7368,13 +7388,13 @@
         <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>77</v>
+        <v>381</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>77</v>
+        <v>382</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>77</v>
@@ -7392,7 +7412,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7407,13 +7427,13 @@
         <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7421,10 +7441,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7432,7 +7452,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>86</v>
@@ -7447,13 +7467,13 @@
         <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>285</v>
+        <v>157</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7504,7 +7524,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7519,13 +7539,13 @@
         <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>411</v>
+        <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>413</v>
+        <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7533,14 +7553,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>415</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7556,20 +7576,22 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O48" t="s" s="2">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7618,7 +7640,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7627,19 +7649,19 @@
         <v>86</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>420</v>
+        <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>421</v>
+        <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>422</v>
+        <v>396</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>423</v>
+        <v>385</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7647,14 +7669,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>424</v>
+        <v>397</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>424</v>
+        <v>397</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>425</v>
+        <v>398</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7673,17 +7695,17 @@
         <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>426</v>
+        <v>399</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>427</v>
+        <v>400</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7732,7 +7754,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>424</v>
+        <v>397</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7741,19 +7763,19 @@
         <v>86</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>420</v>
+        <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>77</v>
+        <v>402</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7761,10 +7783,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7787,17 +7809,17 @@
         <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7846,7 +7868,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7861,13 +7883,13 @@
         <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7875,10 +7897,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7886,10 +7908,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -7898,21 +7920,19 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>182</v>
+        <v>285</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>441</v>
-      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7936,13 +7956,13 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>442</v>
+        <v>77</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>443</v>
+        <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -7960,13 +7980,13 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>77</v>
@@ -7975,13 +7995,13 @@
         <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7989,14 +8009,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>448</v>
+        <v>420</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8012,22 +8032,20 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>450</v>
+        <v>422</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>453</v>
+        <v>424</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -8076,7 +8094,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8085,19 +8103,19 @@
         <v>86</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>77</v>
+        <v>425</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>455</v>
+        <v>427</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -8105,14 +8123,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>456</v>
+        <v>429</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>456</v>
+        <v>429</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>77</v>
+        <v>430</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8131,17 +8149,17 @@
         <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>457</v>
+        <v>421</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>459</v>
+        <v>432</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -8190,7 +8208,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>456</v>
+        <v>429</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8199,19 +8217,19 @@
         <v>86</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>77</v>
+        <v>425</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>461</v>
+        <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>462</v>
+        <v>434</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>463</v>
+        <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -8219,10 +8237,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8242,21 +8260,21 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>182</v>
+        <v>436</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>465</v>
+        <v>437</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8280,10 +8298,10 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>349</v>
+        <v>77</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>468</v>
+        <v>77</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>77</v>
@@ -8304,7 +8322,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8319,24 +8337,24 @@
         <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>469</v>
+        <v>440</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>470</v>
+        <v>441</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>471</v>
+        <v>442</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>472</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8347,7 +8365,7 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
@@ -8359,18 +8377,18 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>386</v>
+        <v>182</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8394,13 +8412,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>77</v>
+        <v>447</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>77</v>
+        <v>448</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -8418,13 +8436,13 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>77</v>
@@ -8433,13 +8451,13 @@
         <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8447,21 +8465,21 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>478</v>
+        <v>452</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>478</v>
+        <v>452</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>77</v>
+        <v>453</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -8470,19 +8488,23 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8530,13 +8552,13 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>478</v>
+        <v>452</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>77</v>
@@ -8545,24 +8567,24 @@
         <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>77</v>
+        <v>451</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>484</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8582,19 +8604,21 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8642,13 +8666,13 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>77</v>
@@ -8657,13 +8681,13 @@
         <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>77</v>
+        <v>468</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8671,21 +8695,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>491</v>
+        <v>469</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>491</v>
+        <v>469</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>492</v>
+        <v>77</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8697,16 +8721,16 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>493</v>
+        <v>182</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8732,10 +8756,10 @@
         <v>77</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>77</v>
+        <v>473</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>77</v>
@@ -8756,13 +8780,13 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>491</v>
+        <v>469</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>77</v>
@@ -8771,24 +8795,24 @@
         <v>98</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>497</v>
+        <v>474</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>498</v>
+        <v>475</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>77</v>
+        <v>476</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>77</v>
+        <v>477</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8811,18 +8835,18 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>500</v>
+        <v>391</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8870,7 +8894,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8885,13 +8909,13 @@
         <v>98</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>77</v>
+        <v>481</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>77</v>
+        <v>476</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -8899,10 +8923,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8913,7 +8937,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
@@ -8925,13 +8949,13 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>157</v>
+        <v>484</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>158</v>
+        <v>485</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>159</v>
+        <v>486</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8982,50 +9006,50 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>160</v>
+        <v>483</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>77</v>
+        <v>487</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>161</v>
+        <v>488</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>77</v>
+        <v>489</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
@@ -9037,17 +9061,15 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>132</v>
+        <v>491</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>133</v>
+        <v>492</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -9096,7 +9118,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>168</v>
+        <v>490</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9108,13 +9130,13 @@
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>77</v>
+        <v>494</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>161</v>
+        <v>495</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -9125,14 +9147,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9145,26 +9167,24 @@
         <v>77</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>132</v>
+        <v>498</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>77</v>
       </c>
@@ -9212,7 +9232,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9224,13 +9244,13 @@
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>77</v>
+        <v>502</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>129</v>
+        <v>503</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
@@ -9241,10 +9261,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9267,17 +9287,17 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -9326,7 +9346,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9344,7 +9364,7 @@
         <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>77</v>
@@ -9355,10 +9375,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9381,20 +9401,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>285</v>
+        <v>157</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>519</v>
+        <v>158</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>522</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9442,7 +9458,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>518</v>
+        <v>160</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9454,13 +9470,13 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>523</v>
+        <v>161</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
@@ -9471,14 +9487,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9497,15 +9513,17 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>525</v>
+        <v>132</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>526</v>
+        <v>133</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -9554,7 +9572,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>524</v>
+        <v>168</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9566,13 +9584,13 @@
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>528</v>
+        <v>161</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>77</v>
@@ -9583,14 +9601,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9603,23 +9621,25 @@
         <v>77</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>500</v>
+        <v>132</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O66" t="s" s="2">
-        <v>533</v>
+        <v>141</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -9668,7 +9688,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9680,13 +9700,13 @@
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>534</v>
+        <v>129</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>77</v>
@@ -9697,10 +9717,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>535</v>
+        <v>517</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>535</v>
+        <v>517</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9723,16 +9743,18 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>157</v>
+        <v>518</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>158</v>
+        <v>519</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>159</v>
+        <v>520</v>
       </c>
       <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>521</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9780,7 +9802,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>160</v>
+        <v>517</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9792,13 +9814,13 @@
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>161</v>
+        <v>522</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
@@ -9809,21 +9831,21 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>77</v>
@@ -9835,18 +9857,20 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>132</v>
+        <v>285</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>133</v>
+        <v>524</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>164</v>
+        <v>525</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>526</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>527</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9894,25 +9918,25 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>168</v>
+        <v>523</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>161</v>
+        <v>528</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>77</v>
@@ -9923,14 +9947,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>508</v>
+        <v>77</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9943,26 +9967,22 @@
         <v>77</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>132</v>
+        <v>530</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
       </c>
@@ -10010,7 +10030,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10022,13 +10042,13 @@
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>129</v>
+        <v>533</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>77</v>
@@ -10039,21 +10059,21 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>77</v>
@@ -10065,19 +10085,17 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>182</v>
+        <v>505</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>542</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -10102,10 +10120,10 @@
         <v>77</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>349</v>
+        <v>77</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>544</v>
+        <v>77</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>77</v>
@@ -10126,13 +10144,13 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>77</v>
@@ -10144,7 +10162,7 @@
         <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>77</v>
@@ -10155,10 +10173,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10166,7 +10184,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>86</v>
@@ -10181,13 +10199,13 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>546</v>
+        <v>157</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>547</v>
+        <v>158</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>548</v>
+        <v>159</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10238,10 +10256,10 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>545</v>
+        <v>160</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>86</v>
@@ -10250,13 +10268,13 @@
         <v>77</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>534</v>
+        <v>161</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>77</v>
@@ -10267,14 +10285,14 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10293,18 +10311,18 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>500</v>
+        <v>132</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>550</v>
+        <v>133</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>77</v>
       </c>
@@ -10352,7 +10370,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>549</v>
+        <v>168</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10364,13 +10382,13 @@
         <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>534</v>
+        <v>161</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>77</v>
@@ -10381,42 +10399,46 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>77</v>
+        <v>513</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>158</v>
+        <v>514</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
       </c>
@@ -10464,25 +10486,25 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>160</v>
+        <v>516</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>77</v>
@@ -10493,21 +10515,21 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>131</v>
+        <v>544</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>77</v>
@@ -10519,18 +10541,20 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>133</v>
+        <v>545</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>164</v>
+        <v>546</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>547</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>548</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10554,10 +10578,10 @@
         <v>77</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>77</v>
+        <v>549</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>77</v>
@@ -10578,25 +10602,25 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>168</v>
+        <v>543</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>161</v>
+        <v>539</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>77</v>
@@ -10607,46 +10631,42 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>508</v>
+        <v>77</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>132</v>
+        <v>551</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>509</v>
+        <v>552</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10694,25 +10714,25 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>511</v>
+        <v>550</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>129</v>
+        <v>539</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>77</v>
@@ -10723,21 +10743,21 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>539</v>
+        <v>77</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>77</v>
@@ -10749,17 +10769,17 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>182</v>
+        <v>505</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -10784,10 +10804,10 @@
         <v>77</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>349</v>
+        <v>77</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>560</v>
+        <v>77</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>77</v>
@@ -10808,13 +10828,13 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>77</v>
@@ -10826,7 +10846,7 @@
         <v>77</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>77</v>
@@ -10837,10 +10857,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10949,10 +10969,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11022,16 +11042,16 @@
         <v>77</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>168</v>
@@ -11063,14 +11083,14 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>77</v>
+        <v>513</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11083,25 +11103,25 @@
         <v>77</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>199</v>
+        <v>514</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>200</v>
+        <v>515</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>202</v>
+        <v>141</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>77</v>
@@ -11150,7 +11170,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>203</v>
+        <v>516</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11162,35 +11182,35 @@
         <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>205</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>77</v>
+        <v>544</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>86</v>
@@ -11205,16 +11225,18 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>158</v>
+        <v>562</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>159</v>
+        <v>563</v>
       </c>
       <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>564</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
       </c>
@@ -11238,10 +11260,10 @@
         <v>77</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>77</v>
+        <v>565</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>77</v>
@@ -11262,10 +11284,10 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>160</v>
+        <v>561</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>86</v>
@@ -11274,13 +11296,13 @@
         <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>161</v>
+        <v>539</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>77</v>
@@ -11291,21 +11313,21 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>77</v>
@@ -11317,17 +11339,15 @@
         <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -11364,31 +11384,31 @@
         <v>77</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>77</v>
@@ -11405,21 +11425,21 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>77</v>
@@ -11428,23 +11448,21 @@
         <v>77</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>212</v>
+        <v>133</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>77</v>
       </c>
@@ -11480,51 +11498,51 @@
         <v>77</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11535,7 +11553,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>77</v>
@@ -11547,18 +11565,20 @@
         <v>87</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
       </c>
@@ -11606,13 +11626,13 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>77</v>
@@ -11624,21 +11644,21 @@
         <v>77</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>227</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11658,21 +11678,19 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>230</v>
+        <v>158</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>231</v>
+        <v>159</v>
       </c>
       <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>232</v>
-      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>77</v>
       </c>
@@ -11696,11 +11714,13 @@
         <v>77</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="Y84" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z84" t="s" s="2">
-        <v>569</v>
+        <v>77</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>77</v>
@@ -11718,7 +11738,7 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>233</v>
+        <v>160</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -11730,19 +11750,19 @@
         <v>77</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>234</v>
+        <v>161</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>235</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85">
@@ -11754,14 +11774,14 @@
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>77</v>
@@ -11770,21 +11790,21 @@
         <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>238</v>
+        <v>133</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>77</v>
       </c>
@@ -11820,43 +11840,43 @@
         <v>77</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="AC85" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AD85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>242</v>
+        <v>161</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>243</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86">
@@ -11887,19 +11907,19 @@
         <v>87</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>246</v>
+        <v>100</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>77</v>
@@ -11948,7 +11968,7 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -11966,13 +11986,13 @@
         <v>77</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>253</v>
+        <v>219</v>
       </c>
     </row>
     <row r="87">
@@ -12006,17 +12026,15 @@
         <v>157</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>77</v>
       </c>
@@ -12064,7 +12082,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12082,13 +12100,13 @@
         <v>77</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>262</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88">
@@ -12104,7 +12122,7 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>86</v>
@@ -12116,20 +12134,20 @@
         <v>77</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>574</v>
+        <v>106</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>575</v>
+        <v>230</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>576</v>
+        <v>231</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>577</v>
+        <v>232</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -12154,32 +12172,32 @@
         <v>77</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="Y88" s="2"/>
       <c r="Z88" t="s" s="2">
-        <v>77</v>
+        <v>574</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AC88" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>579</v>
+        <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>573</v>
+        <v>233</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>86</v>
@@ -12194,31 +12212,29 @@
         <v>77</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>534</v>
+        <v>234</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="C89" t="s" s="2">
-        <v>581</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>86</v>
@@ -12230,20 +12246,20 @@
         <v>77</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>574</v>
+        <v>157</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>575</v>
+        <v>238</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>576</v>
+        <v>239</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>577</v>
+        <v>240</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>77</v>
@@ -12292,10 +12308,10 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>573</v>
+        <v>241</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>86</v>
@@ -12310,12 +12326,472 @@
         <v>77</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>534</v>
+        <v>242</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN89" t="s" s="2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="P90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="P91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="P92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AC92" s="2"/>
+      <c r="AD92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="D93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="P93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN93" t="s" s="2">
         <v>77</v>
       </c>
     </row>
